--- a/data/AustCropRrt20240903_StateCropData_v1.0.0.xlsx
+++ b/data/AustCropRrt20240903_StateCropData_v1.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/SustainableFoodProductionGroup/Shared Documents/General/Admin/Purchases/Quotes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waterhouse Sian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C230B571-872B-471B-B031-B32A9F54DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA737385-26F9-4ECB-8611-5F5E4360E44D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230B571-872B-471B-B031-B32A9F54DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="7" xr2:uid="{6819D9E3-7EC1-49B2-8F02-50347530B881}"/>
+    <workbookView xWindow="-28920" yWindow="-1980" windowWidth="29040" windowHeight="15840" xr2:uid="{6819D9E3-7EC1-49B2-8F02-50347530B881}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,18 +802,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1022,7 +1010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,29 +1159,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1203,16 +1168,16 @@
   </cellStyles>
   <dxfs count="376">
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
@@ -1269,241 +1234,7 @@
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -1542,28 +1273,7 @@
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
@@ -1588,6 +1298,255 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -1779,171 +1738,6 @@
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
@@ -1995,88 +1789,10 @@
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -2106,49 +1822,19 @@
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0;\–#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+      <numFmt numFmtId="167" formatCode="0.0;\–0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
@@ -2190,12 +1876,6 @@
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
@@ -2203,15 +1883,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -2232,10 +1903,13 @@
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -2247,7 +1921,25 @@
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
@@ -2317,6 +2009,279 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -2784,9 +2749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2824,7 +2789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2930,7 +2895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3072,7 +3037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3085,7 +3050,7 @@
   </sheetPr>
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3417,6 +3382,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KFF0000 OFFICIAL&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;KFF0000 OFFICIAL</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8387,259 +8356,261 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B8 D7:AM7 B9:AM11 B12 B15 B18 B21 B24 B27 B30 B33 B36 B39:B40 B43 B46 B49 B52 B55 B58 B61">
-    <cfRule type="cellIs" dxfId="375" priority="67" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="B6:B8 B12 B13:C14 B15 B16:C17 B18 B19:C19 B20:AM20 B21 B22:C22 B23:AM23 B24 B25:C25 B26:AM26 B27 B28:C28 B29:AM29 B30 B31:C31 B32:AM32 B33 B34:C34 B35:AM35 B36 B37:C37 B38:AM38 B39:B40 B41:C42 B43 B44:C44 E44:AM44 B45:AM45 B46 B47:C47 E47:AM47 B48:AM48 B49 B50:C50 E50:AM50 B51:AM51 B52 B53:C53 E53:AM53 B54:AM54 B55 B56:C56 E56:AM56 B57:AM57 B58 B59:C59 E59:AM59 B60:AM60 B61 D7:AM7 B9:AM11">
+    <cfRule type="cellIs" dxfId="375" priority="65" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8 D7:AM7 B9:AM11 B12 B13:C14 B15 B16:C17 B18 B19:C19 B20:AM20 B21 B22:C22 B23:AM23 B24 B25:C25 B26:AM26 B27 B28:C28 B29:AM29 B30 B31:C31 B32:AM32 B33 B34:C34 B35:AM35 B36 B37:C37 B38:AM38 B39:B40 B41:C42 B43 B44:C44 E44:AM44 B45:AM45 B46 B47:C47 E47:AM47 B48:AM48 B49 B50:C50 E50:AM50 B51:AM51 B52 B53:C53 E53:AM53 B54:AM54 B55 B56:C56 E56:AM56 B57:AM57 B58 B59:C59 E59:AM59 B60:AM60 B61">
     <cfRule type="cellIs" dxfId="374" priority="66" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="65" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="373" priority="67" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="372" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:AM14">
-    <cfRule type="cellIs" dxfId="371" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="371" priority="25" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="63" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="370" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="27" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="368" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="367" priority="21" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="61" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:AM17">
-    <cfRule type="cellIs" dxfId="367" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="59" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="365" priority="23" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="364" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="363" priority="17" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="57" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:AM20">
-    <cfRule type="cellIs" dxfId="363" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="361" priority="19" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="360" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="359" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="53" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:AM23">
-    <cfRule type="cellIs" dxfId="359" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="357" priority="15" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="356" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="355" priority="9" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="49" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:AM26">
-    <cfRule type="cellIs" dxfId="355" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="353" priority="11" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="352" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="351" priority="5" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="45" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:AM29">
-    <cfRule type="cellIs" dxfId="351" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="349" priority="7" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:AM14">
+    <cfRule type="cellIs" dxfId="347" priority="61" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:AM32">
-    <cfRule type="cellIs" dxfId="347" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="346" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="345" priority="63" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="344" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:AM17">
+    <cfRule type="cellIs" dxfId="343" priority="57" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="37" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:AM35">
-    <cfRule type="cellIs" dxfId="343" priority="33" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="341" priority="59" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="340" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:AM38">
-    <cfRule type="cellIs" dxfId="339" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+  <conditionalFormatting sqref="D19:AM19">
+    <cfRule type="cellIs" dxfId="339" priority="53" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="338" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="55" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="336" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:AM22">
+    <cfRule type="cellIs" dxfId="335" priority="49" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="29" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:AM42">
-    <cfRule type="cellIs" dxfId="335" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="333" priority="51" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="332" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:AM25">
+    <cfRule type="cellIs" dxfId="331" priority="45" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:AM45">
-    <cfRule type="cellIs" dxfId="331" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="329" priority="47" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:AM28">
+    <cfRule type="cellIs" dxfId="327" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:AM48">
-    <cfRule type="cellIs" dxfId="327" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="326" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="43" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="324" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:AM31">
+    <cfRule type="cellIs" dxfId="323" priority="37" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="21" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:AM51">
-    <cfRule type="cellIs" dxfId="323" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="321" priority="39" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="320" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:AM34">
+    <cfRule type="cellIs" dxfId="319" priority="33" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="17" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:AM54">
-    <cfRule type="cellIs" dxfId="319" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="35" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="316" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:AM37">
+    <cfRule type="cellIs" dxfId="315" priority="29" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="13" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:AM57">
-    <cfRule type="cellIs" dxfId="315" priority="9" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="313" priority="31" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="312" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:AM42">
+    <cfRule type="cellIs" dxfId="311" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:AM60">
-    <cfRule type="cellIs" dxfId="311" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="309" priority="3" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="5" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="308" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8655,9 +8626,7 @@
   </sheetPr>
   <dimension ref="A5:AN61"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20:AM20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9759,241 +9728,241 @@
       <c r="AM18" s="25"/>
       <c r="AN18" s="27"/>
     </row>
-    <row r="19" spans="1:40" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71" t="s">
+    <row r="19" spans="1:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="9">
         <v>21.623999999999999</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="9">
         <v>39.457999999999998</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="9">
         <v>85.403000000000006</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="9">
         <v>28.097999999999999</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="9">
         <v>26.361999999999998</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="9">
         <v>20.236000000000001</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="9">
         <v>31.402999999999999</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="9">
         <v>31.216000000000001</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="9">
         <v>50.854999999999997</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="9">
         <v>74.703999999999994</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="9">
         <v>66.304000000000002</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="9">
         <v>124.456</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="9">
         <v>136.614</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="9">
         <v>87.503</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="9">
         <v>107.593</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="9">
         <v>63.789000000000001</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="9">
         <v>62.371000000000002</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="9">
         <v>176.09299999999999</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="9">
         <v>214.5</v>
       </c>
-      <c r="W19" s="73">
+      <c r="W19" s="9">
         <v>199.31700000000001</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="9">
         <v>252.25399999999999</v>
       </c>
-      <c r="Y19" s="73">
+      <c r="Y19" s="9">
         <v>403.56599999999997</v>
       </c>
-      <c r="Z19" s="73">
+      <c r="Z19" s="9">
         <v>243.53200000000001</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="9">
         <v>280.3</v>
       </c>
-      <c r="AB19" s="73">
+      <c r="AB19" s="9">
         <v>219.8</v>
       </c>
-      <c r="AC19" s="73">
+      <c r="AC19" s="9">
         <v>209.3</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AD19" s="9">
         <v>397.92</v>
       </c>
-      <c r="AE19" s="73">
+      <c r="AE19" s="9">
         <v>480</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="9">
         <v>450</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AG19" s="9">
         <v>58.569000000000003</v>
       </c>
-      <c r="AH19" s="73">
+      <c r="AH19" s="9">
         <v>66.355000000000004</v>
       </c>
-      <c r="AI19" s="73">
+      <c r="AI19" s="9">
         <v>337.95600000000002</v>
       </c>
-      <c r="AJ19" s="73">
+      <c r="AJ19" s="9">
         <v>280</v>
       </c>
-      <c r="AK19" s="73">
+      <c r="AK19" s="9">
         <v>160</v>
       </c>
-      <c r="AL19" s="74">
+      <c r="AL19" s="10">
         <v>150</v>
       </c>
-      <c r="AM19" s="74">
+      <c r="AM19" s="10">
         <v>350</v>
       </c>
-      <c r="AN19" s="75"/>
-    </row>
-    <row r="20" spans="1:40" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71" t="s">
+      <c r="AN19" s="26"/>
+    </row>
+    <row r="20" spans="1:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="9">
         <v>20.681999999999999</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="9">
         <v>56.45</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="9">
         <v>52.957000000000001</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="9">
         <v>24.655000000000001</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="9">
         <v>28.616</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="9">
         <v>7.609</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="9">
         <v>30.623000000000001</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="9">
         <v>40.795000000000002</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="9">
         <v>46.366</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="9">
         <v>52.83</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="9">
         <v>85.608000000000004</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="9">
         <v>80.290000000000006</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="9">
         <v>164.75299999999999</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="9">
         <v>45.930999999999997</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="9">
         <v>113.16500000000001</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="9">
         <v>88.412000000000006</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="9">
         <v>72.929000000000002</v>
       </c>
-      <c r="U20" s="73">
+      <c r="U20" s="9">
         <v>160.494</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="9">
         <v>201.5</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="9">
         <v>291.76100000000002</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="9">
         <v>303.76100000000002</v>
       </c>
-      <c r="Y20" s="73">
+      <c r="Y20" s="9">
         <v>307.04500000000002</v>
       </c>
-      <c r="Z20" s="73">
+      <c r="Z20" s="9">
         <v>361.11799999999999</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="9">
         <v>379</v>
       </c>
-      <c r="AB20" s="73">
+      <c r="AB20" s="9">
         <v>250.6</v>
       </c>
-      <c r="AC20" s="73">
+      <c r="AC20" s="9">
         <v>282.2</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AD20" s="9">
         <v>489.36799999999999</v>
       </c>
-      <c r="AE20" s="73">
+      <c r="AE20" s="9">
         <v>792</v>
       </c>
-      <c r="AF20" s="73">
+      <c r="AF20" s="9">
         <v>407</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AG20" s="9">
         <v>22.184999999999999</v>
       </c>
-      <c r="AH20" s="73">
+      <c r="AH20" s="9">
         <v>24.367000000000001</v>
       </c>
-      <c r="AI20" s="73">
+      <c r="AI20" s="9">
         <v>566.78599999999994</v>
       </c>
-      <c r="AJ20" s="73">
+      <c r="AJ20" s="9">
         <v>504</v>
       </c>
-      <c r="AK20" s="73">
+      <c r="AK20" s="9">
         <v>192</v>
       </c>
-      <c r="AL20" s="74">
+      <c r="AL20" s="10">
         <v>165</v>
       </c>
-      <c r="AM20" s="74">
+      <c r="AM20" s="10">
         <v>650</v>
       </c>
-      <c r="AN20" s="75"/>
+      <c r="AN20" s="26"/>
     </row>
     <row r="21" spans="1:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
@@ -13728,293 +13697,311 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:B9 D7:AN7 AN8:AN12 A11:AM11 A12:B12 A15:B15 AN15 A18:B18 AN18 A21:B21 AN21 A24:B24 AN24 A27:B27 AN27 A30:B30 AN30 A33:B33 AN33 A36:B36 AN36 A39:B40 AN39:AN61 A43:B43 A46:B46 A49:B49 A52:B52 A55:B55 A58:B58 A61:B61">
-    <cfRule type="cellIs" dxfId="307" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="69" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D7:AN7 A8:B9 AN8:AN12 A11:AM11 A12:B12 A15:B15 AN15 A18:B18 AN18 A21:B21 AN21 A24:B24 AN24 A27:B27 AN27 A30:B30 AN30 A33:B33 AN33 A36:B36 AN36 A39:B40 AN39:AN61 A43:B43 A46:B46 A49:B49 A52:B52 A55:B55 A58:B58 A61:B61">
+    <cfRule type="cellIs" dxfId="307" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="70" stopIfTrue="1" operator="lessThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:AN7 A8:B9 AN8:AN12 E10:AM10 A11:AM11 A12:B12 A13:C13 A14:AN14 A15:B15 AN15 A16:C16 A17:AN17 A18:B18 AN18 A19:C19 A20:AN20 A21:B21 AN21 A22:C22 A23:AN23 A24:B24 AN24 A25:C25 A26:AN26 A27:B27 AN27 A28:C28 A29:AN29 A30:B30 AN30 A31:C31 A32:AN32 A33:B33 AN33 A34:C34 A35:AN35 A36:B36 AN36 A37:C37 A38:AN38 A39:B40 AN39:AN61 A43:B43 A46:B46 A49:B49 A52:B52 A55:B55 A58:B58 A61:B61">
+    <cfRule type="cellIs" dxfId="306" priority="70" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="71" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:AM10">
-    <cfRule type="cellIs" dxfId="303" priority="67" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="66" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="304" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:AM42">
-    <cfRule type="cellIs" dxfId="300" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="27" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="25" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:AM45">
-    <cfRule type="cellIs" dxfId="296" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="21" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="23" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:AM48">
-    <cfRule type="cellIs" dxfId="292" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="17" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="19" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:AM51">
-    <cfRule type="cellIs" dxfId="288" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="15" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="13" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:AM54">
-    <cfRule type="cellIs" dxfId="284" priority="9" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="11" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:AM57">
-    <cfRule type="cellIs" dxfId="280" priority="5" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="7" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:AM60">
-    <cfRule type="cellIs" dxfId="276" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="3" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:AN10">
-    <cfRule type="cellIs" dxfId="272" priority="65" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:AN14">
-    <cfRule type="cellIs" dxfId="271" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="63" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="61" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:AN17">
-    <cfRule type="cellIs" dxfId="267" priority="59" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="57" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:AN20">
-    <cfRule type="cellIs" dxfId="263" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="53" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="55" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:AN23">
-    <cfRule type="cellIs" dxfId="259" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="49" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="51" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:AN26">
-    <cfRule type="cellIs" dxfId="255" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="45" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="47" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:AN29">
-    <cfRule type="cellIs" dxfId="251" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="43" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:AN32">
-    <cfRule type="cellIs" dxfId="247" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="39" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:AN35">
-    <cfRule type="cellIs" dxfId="243" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="35" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:AN38">
-    <cfRule type="cellIs" dxfId="239" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="295" priority="29" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="294" priority="66" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="293" priority="67" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:AM42">
+    <cfRule type="cellIs" dxfId="291" priority="25" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="27" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:AM45">
+    <cfRule type="cellIs" dxfId="287" priority="21" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="23" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:AM48">
+    <cfRule type="cellIs" dxfId="283" priority="17" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="19" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:AM51">
+    <cfRule type="cellIs" dxfId="279" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="15" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:AM54">
+    <cfRule type="cellIs" dxfId="275" priority="9" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="11" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:AM57">
+    <cfRule type="cellIs" dxfId="271" priority="5" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="7" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:AM60">
+    <cfRule type="cellIs" dxfId="267" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="3" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:AN10">
+    <cfRule type="cellIs" dxfId="263" priority="65" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:AN13">
+    <cfRule type="cellIs" dxfId="262" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="63" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:AN16">
+    <cfRule type="cellIs" dxfId="259" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="59" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:AN19">
+    <cfRule type="cellIs" dxfId="256" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="55" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:AN22">
+    <cfRule type="cellIs" dxfId="253" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="51" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:AN25">
+    <cfRule type="cellIs" dxfId="250" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="47" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:AN28">
+    <cfRule type="cellIs" dxfId="247" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="43" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:AN31">
+    <cfRule type="cellIs" dxfId="244" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="39" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:AN34">
+    <cfRule type="cellIs" dxfId="241" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="35" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:AN37">
+    <cfRule type="cellIs" dxfId="238" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="237" priority="31" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN6 A6:B7 A10:C10 A41:C42 AN41:AN42 A44:C45 AN44:AN45 A47:C48 AN47:AN48 A50:C51 AN50:AN51 A53:C54 AN53:AN54 A56:C57 AN56:AN57 A59:C60 AN59:AN60">
+    <cfRule type="cellIs" dxfId="235" priority="73" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN6 AN41:AN42 AN44:AN45 AN47:AN48 AN50:AN51 AN53:AN54 AN56:AN57 AN59:AN60">
-    <cfRule type="cellIs" dxfId="235" priority="74" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="234" priority="74" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="75" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="233" priority="75" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="232" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AN42 AN44:AN45 AN47:AN48 AN50:AN51 AN53:AN54 AN56:AN57 AN59:AN60 AN6">
-    <cfRule type="cellIs" dxfId="232" priority="73" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14030,9 +14017,7 @@
   </sheetPr>
   <dimension ref="B5:AM61"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19:AM20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15107,235 +15092,235 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
     </row>
-    <row r="19" spans="2:39" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+    <row r="19" spans="2:39" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="9">
         <v>40.862000000000002</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="9">
         <v>72.183999999999997</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="9">
         <v>58.2</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="9">
         <v>32.460999999999999</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="9">
         <v>7.4249999999999998</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="9">
         <v>18.895</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="9">
         <v>26.292000000000002</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="9">
         <v>20.798999999999999</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="9">
         <v>27.771999999999998</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="9">
         <v>41.475000000000001</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="9">
         <v>46.183</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="9">
         <v>71.024000000000001</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="9">
         <v>64.552000000000007</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="9">
         <v>83.953999999999994</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="9">
         <v>73.460999999999999</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="9">
         <v>26.9</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="9">
         <v>39.234999999999999</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="9">
         <v>60.430999999999997</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="9">
         <v>66</v>
       </c>
-      <c r="W19" s="73">
+      <c r="W19" s="9">
         <v>85.5</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="9">
         <v>124.946</v>
       </c>
-      <c r="Y19" s="73">
+      <c r="Y19" s="9">
         <v>199.21799999999999</v>
       </c>
-      <c r="Z19" s="73">
+      <c r="Z19" s="9">
         <v>148.92500000000001</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="9">
         <v>218</v>
       </c>
-      <c r="AB19" s="73">
+      <c r="AB19" s="9">
         <v>216</v>
       </c>
-      <c r="AC19" s="73">
+      <c r="AC19" s="9">
         <v>165</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AD19" s="9">
         <v>251.595</v>
       </c>
-      <c r="AE19" s="73">
+      <c r="AE19" s="9">
         <v>550</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="9">
         <v>507.06200000000001</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AG19" s="9">
         <v>164.97499999999999</v>
       </c>
-      <c r="AH19" s="73">
+      <c r="AH19" s="9">
         <v>170.785</v>
       </c>
-      <c r="AI19" s="73">
+      <c r="AI19" s="9">
         <v>213.75399999999999</v>
       </c>
-      <c r="AJ19" s="73">
+      <c r="AJ19" s="9">
         <v>293.25</v>
       </c>
-      <c r="AK19" s="73">
+      <c r="AK19" s="9">
         <v>200</v>
       </c>
-      <c r="AL19" s="74">
+      <c r="AL19" s="10">
         <v>220</v>
       </c>
-      <c r="AM19" s="75">
+      <c r="AM19" s="26">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="2:39" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+    <row r="20" spans="2:39" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="9">
         <v>42.07</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="9">
         <v>87.606999999999999</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="9">
         <v>36.598999999999997</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="9">
         <v>14.167</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="9">
         <v>4.21</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="9">
         <v>7.7770000000000001</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="9">
         <v>13.128</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="9">
         <v>26.375</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="9">
         <v>23.436</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="9">
         <v>33.848999999999997</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="9">
         <v>45.939</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="9">
         <v>55.999000000000002</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="9">
         <v>75.355999999999995</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="9">
         <v>76.076999999999998</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="9">
         <v>69.980999999999995</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="9">
         <v>32.457999999999998</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="9">
         <v>39.680999999999997</v>
       </c>
-      <c r="U20" s="73">
+      <c r="U20" s="9">
         <v>60.594999999999999</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="9">
         <v>83</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="9">
         <v>126.02200000000001</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="9">
         <v>145.774</v>
       </c>
-      <c r="Y20" s="73">
+      <c r="Y20" s="9">
         <v>138.86799999999999</v>
       </c>
-      <c r="Z20" s="73">
+      <c r="Z20" s="9">
         <v>220.87</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="9">
         <v>356.6</v>
       </c>
-      <c r="AB20" s="73">
+      <c r="AB20" s="9">
         <v>296.3</v>
       </c>
-      <c r="AC20" s="73">
+      <c r="AC20" s="9">
         <v>201</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AD20" s="9">
         <v>370.58</v>
       </c>
-      <c r="AE20" s="73">
+      <c r="AE20" s="9">
         <v>1150</v>
       </c>
-      <c r="AF20" s="73">
+      <c r="AF20" s="9">
         <v>467.00700000000001</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AG20" s="9">
         <v>117.673</v>
       </c>
-      <c r="AH20" s="73">
+      <c r="AH20" s="9">
         <v>162.08199999999999</v>
       </c>
-      <c r="AI20" s="73">
+      <c r="AI20" s="9">
         <v>250.90100000000001</v>
       </c>
-      <c r="AJ20" s="73">
+      <c r="AJ20" s="9">
         <v>500.75</v>
       </c>
-      <c r="AK20" s="73">
+      <c r="AK20" s="9">
         <v>292</v>
       </c>
-      <c r="AL20" s="74">
+      <c r="AL20" s="10">
         <v>280</v>
       </c>
-      <c r="AM20" s="75">
+      <c r="AM20" s="26">
         <v>640</v>
       </c>
     </row>
@@ -18991,7 +18976,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B9 B10:AM11 B12 B13:AM14 B15 B16:AM17 B18 B19:AM20 B21 B22:AM23 B24 B25:AM26 B27 B28:AM29 B30 B31:AM32 B33 B34:AM35 B36 B37:AM38 B39:B40 B41:AM42 B43 B44:AM45 B46 B47:AM48 B49 B50:AM51 B52 B53:AM54 B55 B56:AM57 B58 B59:AM60 B61">
+  <conditionalFormatting sqref="B41:AM42 B44:AM45 B47:AM48 B50:AM51 B53:AM54 B56:AM57 B59:AM60 B6:B9 B10:AM11 B12 B13:AM14 B15 B16:AM17 B18 B19:AM20 B21 B22:AM23 B24 B25:AM26 B27 B28:AM29 B30 B31:AM32 B33 B34:AM35 B36 B37:AM38 B39:B40 B43 B46 B49 B52 B55 B58 B61">
     <cfRule type="cellIs" dxfId="231" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -19034,9 +19019,7 @@
   </sheetPr>
   <dimension ref="B5:AN61"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19:AM20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20125,239 +20108,239 @@
       <c r="AM18" s="12"/>
       <c r="AN18" s="27"/>
     </row>
-    <row r="19" spans="2:40" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+    <row r="19" spans="2:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="9">
         <v>5.7880000000000003</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="9">
         <v>8.2210000000000001</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="9">
         <v>16.448</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="9">
         <v>11.907999999999999</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="9">
         <v>9.3170000000000002</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="9">
         <v>12.856999999999999</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="9">
         <v>12.323</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="9">
         <v>11.849</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="9">
         <v>11.683999999999999</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="9">
         <v>15.468999999999999</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="9">
         <v>6.1660000000000004</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="9">
         <v>1.1559999999999999</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="9">
         <v>0.71299999999999997</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="9">
         <v>4.1150000000000002</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="9">
         <v>4.3230000000000004</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="9">
         <v>0.81100000000000005</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="9">
         <v>1.607</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="9">
         <v>3.3719999999999999</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="9">
         <v>7.7</v>
       </c>
-      <c r="W19" s="73">
+      <c r="W19" s="9">
         <v>6.0579999999999998</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="9">
         <v>9.8450000000000006</v>
       </c>
-      <c r="Y19" s="73">
+      <c r="Y19" s="9">
         <v>8.1440000000000001</v>
       </c>
-      <c r="Z19" s="73">
+      <c r="Z19" s="9">
         <v>10.952</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="9">
         <v>20.3</v>
       </c>
-      <c r="AB19" s="73">
+      <c r="AB19" s="9">
         <v>19</v>
       </c>
-      <c r="AC19" s="73">
+      <c r="AC19" s="9">
         <v>21.1</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AD19" s="9">
         <v>10.862</v>
       </c>
-      <c r="AE19" s="73">
+      <c r="AE19" s="9">
         <v>19</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="9">
         <v>33.930999999999997</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AG19" s="9">
         <v>26.466000000000001</v>
       </c>
-      <c r="AH19" s="73">
+      <c r="AH19" s="9">
         <v>21.37</v>
       </c>
-      <c r="AI19" s="73">
+      <c r="AI19" s="9">
         <v>10.074</v>
       </c>
-      <c r="AJ19" s="73">
+      <c r="AJ19" s="9">
         <v>8</v>
       </c>
-      <c r="AK19" s="73">
+      <c r="AK19" s="9">
         <v>8</v>
       </c>
-      <c r="AL19" s="74">
+      <c r="AL19" s="10">
         <v>10</v>
       </c>
-      <c r="AM19" s="74">
+      <c r="AM19" s="10">
         <v>10</v>
       </c>
-      <c r="AN19" s="79"/>
-    </row>
-    <row r="20" spans="2:40" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="78" t="s">
+      <c r="AN19" s="35"/>
+    </row>
+    <row r="20" spans="2:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="9">
         <v>7.5339999999999998</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="9">
         <v>9.9589999999999996</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="9">
         <v>19.759</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="9">
         <v>9.0169999999999995</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="9">
         <v>10.646000000000001</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="9">
         <v>7.9050000000000002</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="9">
         <v>17.27</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="9">
         <v>16.829999999999998</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="9">
         <v>16.719000000000001</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="9">
         <v>13.385999999999999</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="9">
         <v>4.9050000000000002</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="9">
         <v>0.85599999999999998</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="9">
         <v>1.0249999999999999</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="9">
         <v>1.994</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="9">
         <v>3.7069999999999999</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="9">
         <v>0.63100000000000001</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="9">
         <v>2.2290000000000001</v>
       </c>
-      <c r="U20" s="73">
+      <c r="U20" s="9">
         <v>1.119</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="9">
         <v>9.25</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="9">
         <v>3.9119999999999999</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="9">
         <v>9.4169999999999998</v>
       </c>
-      <c r="Y20" s="73">
+      <c r="Y20" s="9">
         <v>14.141999999999999</v>
       </c>
-      <c r="Z20" s="73">
+      <c r="Z20" s="9">
         <v>14.012</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="9">
         <v>21.5</v>
       </c>
-      <c r="AB20" s="73">
+      <c r="AB20" s="9">
         <v>27</v>
       </c>
-      <c r="AC20" s="73">
+      <c r="AC20" s="9">
         <v>16</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AD20" s="9">
         <v>7.0949999999999998</v>
       </c>
-      <c r="AE20" s="73">
+      <c r="AE20" s="9">
         <v>27</v>
       </c>
-      <c r="AF20" s="73">
+      <c r="AF20" s="9">
         <v>38.401000000000003</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AG20" s="9">
         <v>26.573</v>
       </c>
-      <c r="AH20" s="73">
+      <c r="AH20" s="9">
         <v>18.056999999999999</v>
       </c>
-      <c r="AI20" s="73">
+      <c r="AI20" s="9">
         <v>12.97</v>
       </c>
-      <c r="AJ20" s="73">
+      <c r="AJ20" s="9">
         <v>11</v>
       </c>
-      <c r="AK20" s="73">
+      <c r="AK20" s="9">
         <v>10</v>
       </c>
-      <c r="AL20" s="74">
+      <c r="AL20" s="10">
         <v>12</v>
       </c>
-      <c r="AM20" s="74">
+      <c r="AM20" s="10">
         <v>11.5</v>
       </c>
-      <c r="AN20" s="79"/>
+      <c r="AN20" s="35"/>
     </row>
     <row r="21" spans="2:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
@@ -24051,130 +24034,132 @@
     <mergeCell ref="B6:AM6"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="B41:AN42">
-    <cfRule type="cellIs" dxfId="223" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="AN6 B6:B7 B41:C42 B44:C45 B47:C48 B50:C51 B53:C54 B56:C57 B59:C60">
+    <cfRule type="cellIs" dxfId="223" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:AM7 AN7:AN40 AN43 AN46 AN49 AN52 AN55 AN58 AN61 B8:B9 B10:AM11 B12 B13:AM14 B15 B16:AM17 B18 B19:AM20 B21 B22:AM23 B24 B25:AM26 B27 B28:AM29 B30 B31:AM32 B33 B34:AM35 B36 B37:AM38 B39:B40 B43 B46 B49 B52 B55 B58 B61">
+    <cfRule type="cellIs" dxfId="222" priority="29" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="31" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="219" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:AN45">
-    <cfRule type="cellIs" dxfId="219" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+  <conditionalFormatting sqref="D41:AN42">
+    <cfRule type="cellIs" dxfId="218" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="3" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="215" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:AN45">
+    <cfRule type="cellIs" dxfId="214" priority="25" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="25" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:AN48">
-    <cfRule type="cellIs" dxfId="215" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="212" priority="27" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="211" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:AN48">
+    <cfRule type="cellIs" dxfId="210" priority="21" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="21" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:AN51">
-    <cfRule type="cellIs" dxfId="211" priority="17" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="23" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="207" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:AN54">
-    <cfRule type="cellIs" dxfId="207" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+  <conditionalFormatting sqref="D50:AN51">
+    <cfRule type="cellIs" dxfId="206" priority="17" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="19" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="203" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:AN54">
+    <cfRule type="cellIs" dxfId="202" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="13" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:AN57">
-    <cfRule type="cellIs" dxfId="203" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="200" priority="15" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="199" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:AN57">
+    <cfRule type="cellIs" dxfId="198" priority="9" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="9" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:AN60">
-    <cfRule type="cellIs" dxfId="199" priority="5" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="11" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="195" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:AM7 AN7:AN40 B8:B9 B10:AM11 B12 B13:AM14 B15 B16:AM17 B18 B19:AM20 B21 B22:AM23 B24 B25:AM26 B27 B28:AM29 B30 B31:AM32 B33 B34:AM35 B36 B37:AM38 B39:B40 B43 AN43 B46 AN46 B49 AN49 B52 AN52 B55 AN55 B58 AN58 B61 AN61">
-    <cfRule type="cellIs" dxfId="195" priority="29" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D59:AN60">
+    <cfRule type="cellIs" dxfId="194" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="193" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="7" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="191" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN6 B6:B7">
-    <cfRule type="cellIs" dxfId="191" priority="33" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="AN6 B6:B7 B41:C42 B44:C45 B47:C48 B50:C51 B53:C54 B56:C57 B59:C60">
     <cfRule type="cellIs" dxfId="190" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
@@ -29156,7 +29141,7 @@
     <mergeCell ref="B6:AM6"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B7:AM7 B8:B9 B10:AM11 B12 B13:AM14 B15 B16:AM17 B18 B19:AM20 B21 B22:AM23 B24 B25:AM26 B27 B28:AM29 B30 B31:AM32 B33 B34:AM35 B36 B37:AM38 B39:B40 B43 B46 B49 B52 B55 B58 B61">
+  <conditionalFormatting sqref="B41:C42 B44:C45 B47:C48 B50:C51 B53:C54 B56:C57 B59:C60 B6 B7:AM7 B8:B9 B10:AM11 B12 B13:AM14 B15 B16:AM17 B18 B19:AM20 B21 B22:AM23 B24 B25:AM26 B27 B28:AM29 B30 B31:AM32 B33 B34:AM35 B36 B37:AM38 B39:B40 B43 B46 B49 B52 B55 B58 B61">
     <cfRule type="cellIs" dxfId="187" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29171,7 +29156,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:AM42">
+  <conditionalFormatting sqref="D41:AM42">
     <cfRule type="cellIs" dxfId="183" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29186,7 +29171,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:AM45">
+  <conditionalFormatting sqref="D44:AM45">
     <cfRule type="cellIs" dxfId="179" priority="21" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29201,7 +29186,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:AM48">
+  <conditionalFormatting sqref="D47:AM48">
     <cfRule type="cellIs" dxfId="175" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29216,7 +29201,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:AM51">
+  <conditionalFormatting sqref="D50:AM51">
     <cfRule type="cellIs" dxfId="171" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29231,7 +29216,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:AM54">
+  <conditionalFormatting sqref="D53:AM54">
     <cfRule type="cellIs" dxfId="167" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29246,7 +29231,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:AM57">
+  <conditionalFormatting sqref="D56:AM57">
     <cfRule type="cellIs" dxfId="163" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29261,7 +29246,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:AM60">
+  <conditionalFormatting sqref="D59:AM60">
     <cfRule type="cellIs" dxfId="159" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29289,9 +29274,7 @@
   </sheetPr>
   <dimension ref="B5:AN61"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19:AM20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30379,239 +30362,239 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="39"/>
     </row>
-    <row r="19" spans="2:40" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="s">
+    <row r="19" spans="2:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="9">
         <v>24.498999999999999</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="9">
         <v>57.558</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="9">
         <v>89.620999999999995</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="9">
         <v>78.334999999999994</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="9">
         <v>100.309</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="9">
         <v>143.464</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="9">
         <v>114.962</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="9">
         <v>135.02000000000001</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="9">
         <v>127.033</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="9">
         <v>125.916</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="9">
         <v>27.821999999999999</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="9">
         <v>7.9909999999999997</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="9">
         <v>17.466999999999999</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="9">
         <v>13.754</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="9">
         <v>11.327</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="9">
         <v>15.183999999999999</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="9">
         <v>24.326000000000001</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="9">
         <v>42.438000000000002</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="9">
         <v>17</v>
       </c>
-      <c r="W19" s="73">
+      <c r="W19" s="9">
         <v>44.003999999999998</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="9">
         <v>38.677</v>
       </c>
-      <c r="Y19" s="73">
+      <c r="Y19" s="9">
         <v>35.786999999999999</v>
       </c>
-      <c r="Z19" s="73">
+      <c r="Z19" s="9">
         <v>47.94</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="9">
         <v>49</v>
       </c>
-      <c r="AB19" s="73">
+      <c r="AB19" s="9">
         <v>48</v>
       </c>
-      <c r="AC19" s="73">
+      <c r="AC19" s="9">
         <v>26.4</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AD19" s="9">
         <v>13.332000000000001</v>
       </c>
-      <c r="AE19" s="73">
+      <c r="AE19" s="9">
         <v>16</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="9">
         <v>77.141999999999996</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AG19" s="9">
         <v>33.194000000000003</v>
       </c>
-      <c r="AH19" s="73">
+      <c r="AH19" s="9">
         <v>37.823</v>
       </c>
-      <c r="AI19" s="73">
+      <c r="AI19" s="9">
         <v>36.106000000000002</v>
       </c>
-      <c r="AJ19" s="73">
+      <c r="AJ19" s="9">
         <v>30</v>
       </c>
-      <c r="AK19" s="73">
+      <c r="AK19" s="9">
         <v>25</v>
       </c>
-      <c r="AL19" s="74">
+      <c r="AL19" s="10">
         <v>25</v>
       </c>
-      <c r="AM19" s="74">
+      <c r="AM19" s="10">
         <v>24</v>
       </c>
-      <c r="AN19" s="79"/>
-    </row>
-    <row r="20" spans="2:40" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
+      <c r="AN19" s="35"/>
+    </row>
+    <row r="20" spans="2:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="9">
         <v>38.305</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="9">
         <v>36.250999999999998</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="9">
         <v>112.544</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="9">
         <v>127.499</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="9">
         <v>146.23400000000001</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="9">
         <v>37.466999999999999</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="9">
         <v>199.595</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="9">
         <v>171.911</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="9">
         <v>74.893000000000001</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="9">
         <v>44.616999999999997</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="9">
         <v>22.83</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="9">
         <v>7.593</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="9">
         <v>24.027999999999999</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="9">
         <v>1.464</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="9">
         <v>9.2469999999999999</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="9">
         <v>11.157</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="9">
         <v>31.384</v>
       </c>
-      <c r="U20" s="73">
+      <c r="U20" s="9">
         <v>5.4509999999999996</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="9">
         <v>19</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="9">
         <v>16.89</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="9">
         <v>25.163</v>
       </c>
-      <c r="Y20" s="73">
+      <c r="Y20" s="9">
         <v>50.072000000000003</v>
       </c>
-      <c r="Z20" s="73">
+      <c r="Z20" s="9">
         <v>71.558999999999997</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="9">
         <v>52.2</v>
       </c>
-      <c r="AB20" s="73">
+      <c r="AB20" s="9">
         <v>49.5</v>
       </c>
-      <c r="AC20" s="73">
+      <c r="AC20" s="9">
         <v>52.2</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AD20" s="9">
         <v>3.4649999999999999</v>
       </c>
-      <c r="AE20" s="73">
+      <c r="AE20" s="9">
         <v>28</v>
       </c>
-      <c r="AF20" s="73">
+      <c r="AF20" s="9">
         <v>78.322999999999993</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AG20" s="9">
         <v>24.442</v>
       </c>
-      <c r="AH20" s="73">
+      <c r="AH20" s="9">
         <v>25.542999999999999</v>
       </c>
-      <c r="AI20" s="73">
+      <c r="AI20" s="9">
         <v>38.448</v>
       </c>
-      <c r="AJ20" s="73">
+      <c r="AJ20" s="9">
         <v>40</v>
       </c>
-      <c r="AK20" s="73">
+      <c r="AK20" s="9">
         <v>40</v>
       </c>
-      <c r="AL20" s="74">
+      <c r="AL20" s="10">
         <v>30</v>
       </c>
-      <c r="AM20" s="74">
+      <c r="AM20" s="10">
         <v>26</v>
       </c>
-      <c r="AN20" s="79"/>
+      <c r="AN20" s="35"/>
     </row>
     <row r="21" spans="2:40" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -34306,306 +34289,306 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B9 AN6:AN61 D7:AM7 B12 B15 B18 B21 B24 B27 B30 B33 B36 B39:B40 B43 B46 B49 B52 B55 B58 B61">
-    <cfRule type="cellIs" dxfId="155" priority="79" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="AN41:AN61">
+    <cfRule type="cellIs" dxfId="155" priority="73" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="74" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="75" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="80" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="152" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="78" stopIfTrue="1" operator="lessThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN6:AN61 D7:AM7 B6:B9 B10:C11 B12 B13:C13 B14:AM14 B15 B16:C16 B17:AM17 B18 B19:C19 B20:AM20 B21 B22:C22 B23:AM23 B24 B25:C25 B26:AM26 B27 B28:C28 B29:AM29 B30 B31:C31 B32:AM32 B33 B34:C34 B35:AM35 B36 B37:C37 B38:AM38 B39:B40 B41:C42 B43 B44:C45 B46 B47:C48 B49 B50:C51 B52 B53:C54 B55 B56:C57 B58 B59:C60 B61">
+    <cfRule type="cellIs" dxfId="151" priority="78" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:AM11">
-    <cfRule type="cellIs" dxfId="152" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="79" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="149" priority="80" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:AM14">
-    <cfRule type="cellIs" dxfId="148" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D10:AM11">
+    <cfRule type="cellIs" dxfId="148" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="147" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="3" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="145" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:AM17">
-    <cfRule type="cellIs" dxfId="144" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D13:AM13">
+    <cfRule type="cellIs" dxfId="144" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="143" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="7" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="141" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:AM20">
-    <cfRule type="cellIs" dxfId="140" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D16:AM16">
+    <cfRule type="cellIs" dxfId="140" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="139" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="11" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:AM23">
-    <cfRule type="cellIs" dxfId="136" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D19:AM19">
+    <cfRule type="cellIs" dxfId="136" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="15" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:AM26">
-    <cfRule type="cellIs" dxfId="132" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D22:AM22">
+    <cfRule type="cellIs" dxfId="132" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="19" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:AM29">
-    <cfRule type="cellIs" dxfId="128" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D25:AM25">
+    <cfRule type="cellIs" dxfId="128" priority="21" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="23" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:AM32">
-    <cfRule type="cellIs" dxfId="124" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="29" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:AM28">
+    <cfRule type="cellIs" dxfId="124" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="27" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:AM35">
-    <cfRule type="cellIs" dxfId="120" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D31:AM31">
+    <cfRule type="cellIs" dxfId="120" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="31" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:AM38">
-    <cfRule type="cellIs" dxfId="116" priority="37" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D34:AM34">
+    <cfRule type="cellIs" dxfId="116" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="35" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:AM42">
-    <cfRule type="cellIs" dxfId="112" priority="65" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D37:AM37">
+    <cfRule type="cellIs" dxfId="112" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="66" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="67" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="39" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:AM45">
-    <cfRule type="cellIs" dxfId="108" priority="61" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D41:AM42">
+    <cfRule type="cellIs" dxfId="108" priority="65" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="66" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="63" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="67" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:AM48">
-    <cfRule type="cellIs" dxfId="104" priority="59" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="D44:AM45">
+    <cfRule type="cellIs" dxfId="104" priority="61" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="63" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="57" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:AM48">
+    <cfRule type="cellIs" dxfId="100" priority="57" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:AM51">
-    <cfRule type="cellIs" dxfId="100" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="53" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="59" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:AM54">
-    <cfRule type="cellIs" dxfId="96" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D50:AM51">
+    <cfRule type="cellIs" dxfId="96" priority="53" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="55" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:AM57">
-    <cfRule type="cellIs" dxfId="92" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D53:AM54">
+    <cfRule type="cellIs" dxfId="92" priority="49" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="51" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:AM60">
-    <cfRule type="cellIs" dxfId="88" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D56:AM57">
+    <cfRule type="cellIs" dxfId="88" priority="45" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="47" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="41" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:AM60">
+    <cfRule type="cellIs" dxfId="84" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="43" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN6:AN7 AN10:AN11 AN13:AN14 AN16:AN17 AN19:AN20 AN22:AN23 AN25:AN26 AN28:AN29 AN31:AN32 AN34:AN35 AN37:AN38">
-    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="70" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN6:AN61 B6:B9 D7:AM7 B12 B15 B18 B21 B24 B27 B30 B33 B36 B39:B40 B43 B46 B49 B52 B55 B58 B61">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="AN6:AN61 D7:AM7 B10:C11 B6:B9 B12 B13:C13 B14:AM14 B15 B16:C16 B17:AM17 B18 B19:C19 B20:AM20 B21 B22:C22 B23:AM23 B24 B25:C25 B26:AM26 B27 B28:C28 B29:AM29 B30 B31:C31 B32:AM32 B33 B34:C34 B35:AM35 B36 B37:C37 B38:AM38 B39:B40 B41:C42 B43 B44:C45 B46 B47:C48 B49 B50:C51 B52 B53:C54 B55 B56:C57 B58 B59:C60 B61">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AN61">
-    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34621,9 +34604,7 @@
   </sheetPr>
   <dimension ref="B5:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19:AM20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35697,235 +35678,235 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
     </row>
-    <row r="19" spans="2:39" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+    <row r="19" spans="2:39" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="9">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="9">
         <v>0.7</v>
       </c>
-      <c r="F19" s="73">
-        <v>0</v>
-      </c>
-      <c r="G19" s="73">
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="9">
         <v>3.4239999999999999</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="9">
         <v>13.403</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="9">
         <v>31.437000000000001</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="9">
         <v>42.567</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="9">
         <v>55.698</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="9">
         <v>50.941000000000003</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="9">
         <v>71.48</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="9">
         <v>56.975999999999999</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="9">
         <v>25.59</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="9">
         <v>11.835000000000001</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="9">
         <v>4.1109999999999998</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="9">
         <v>3.49</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="9">
         <v>3.762</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="9">
         <v>1.74</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="9">
         <v>0.8</v>
       </c>
-      <c r="W19" s="73">
+      <c r="W19" s="9">
         <v>3.343</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="9">
         <v>3.26</v>
       </c>
-      <c r="Y19" s="73">
+      <c r="Y19" s="9">
         <v>6.4269999999999996</v>
       </c>
-      <c r="Z19" s="73">
+      <c r="Z19" s="9">
         <v>4.7210000000000001</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="9">
         <v>6</v>
       </c>
-      <c r="AB19" s="73">
+      <c r="AB19" s="9">
         <v>5</v>
       </c>
-      <c r="AC19" s="73">
+      <c r="AC19" s="9">
         <v>3</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AD19" s="9">
         <v>3.5030000000000001</v>
       </c>
-      <c r="AE19" s="73">
+      <c r="AE19" s="9">
         <v>4</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="9">
         <v>7</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AG19" s="9">
         <v>10.742000000000001</v>
       </c>
-      <c r="AH19" s="73">
+      <c r="AH19" s="9">
         <v>12.817</v>
       </c>
-      <c r="AI19" s="73">
+      <c r="AI19" s="9">
         <v>8.4260000000000002</v>
       </c>
-      <c r="AJ19" s="73">
+      <c r="AJ19" s="9">
         <v>4.5</v>
       </c>
-      <c r="AK19" s="73">
+      <c r="AK19" s="9">
         <v>4.5</v>
       </c>
-      <c r="AL19" s="74">
+      <c r="AL19" s="10">
         <v>4</v>
       </c>
-      <c r="AM19" s="74">
+      <c r="AM19" s="10">
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="2:39" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+    <row r="20" spans="2:39" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="9">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="9">
         <v>1.4</v>
       </c>
-      <c r="F20" s="73">
-        <v>0</v>
-      </c>
-      <c r="G20" s="73">
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>1.6</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="9">
         <v>3.4009999999999998</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="9">
         <v>8.1359999999999992</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="9">
         <v>26.292999999999999</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="9">
         <v>31.81</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="9">
         <v>37.216000000000001</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="9">
         <v>42.905999999999999</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="9">
         <v>70.724999999999994</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="9">
         <v>17.753</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="9">
         <v>8.2759999999999998</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="9">
         <v>3.2730000000000001</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="9">
         <v>2.754</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="9">
         <v>2.5569999999999999</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="9">
         <v>3.46</v>
       </c>
-      <c r="U20" s="73">
+      <c r="U20" s="9">
         <v>1.5429999999999999</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="9">
         <v>0.2</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="9">
         <v>3.9580000000000002</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="9">
         <v>2.931</v>
       </c>
-      <c r="Y20" s="73">
+      <c r="Y20" s="9">
         <v>3.2610000000000001</v>
       </c>
-      <c r="Z20" s="73">
+      <c r="Z20" s="9">
         <v>5.8129999999999997</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="9">
         <v>4</v>
       </c>
-      <c r="AB20" s="73">
+      <c r="AB20" s="9">
         <v>6</v>
       </c>
-      <c r="AC20" s="73">
+      <c r="AC20" s="9">
         <v>4</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AD20" s="9">
         <v>3.9220000000000002</v>
       </c>
-      <c r="AE20" s="73">
+      <c r="AE20" s="9">
         <v>7</v>
       </c>
-      <c r="AF20" s="73">
+      <c r="AF20" s="9">
         <v>7.5</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AG20" s="9">
         <v>14.255000000000001</v>
       </c>
-      <c r="AH20" s="73">
+      <c r="AH20" s="9">
         <v>5.1159999999999997</v>
       </c>
-      <c r="AI20" s="73">
+      <c r="AI20" s="9">
         <v>7.3630000000000004</v>
       </c>
-      <c r="AJ20" s="73">
+      <c r="AJ20" s="9">
         <v>6.5</v>
       </c>
-      <c r="AK20" s="73">
+      <c r="AK20" s="9">
         <v>7</v>
       </c>
-      <c r="AL20" s="74">
+      <c r="AL20" s="10">
         <v>4.2</v>
       </c>
-      <c r="AM20" s="74">
+      <c r="AM20" s="10">
         <v>5.5</v>
       </c>
     </row>
@@ -39580,288 +39561,290 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B61:AM61"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="B10:C10 B6:B7 B13:C13 B16:C16 B19:C19 B22:C22 B25:C25 B28:C28 B31:C31 B34:C34 B37:C37 B41:C42 B44:C45 B47:C48 B50:C51 B53:C54 B56:C57 B59:C60">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:AM7 F10:AM10 F13:AM13 F16:AM16 F19:AM19 F22:AM22 F25:AM25 F28:AM28 F31:AM31 F34:AM34 F37:AM37 B8:B9 B11:AM11 B12 B14:AM14 B15 B17:AM17 B18 B20:AM20 B21 B23:AM23 B24 B26:AM26 B27 B29:AM29 B30 B32:AM32 B33 B35:AM35 B36 B38:AM38 B39:B40 B43 B46 B49 B52 B55 B58 B61">
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:E10">
-    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:E13">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D13:E13">
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:E16">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:E19">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:E22">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:E25">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E31">
-    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:E34">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="39" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:E34">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:E37">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:AM42">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:AM42">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:AM45">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D44:AM45">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:AM48">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:AM48">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:AM51">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D50:AM51">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:AM54">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D53:AM54">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:AM57">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="between">
-      <formula>-99.999999999999</formula>
-      <formula>99.999999999999</formula>
+  <conditionalFormatting sqref="D56:AM57">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:AM60">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:AM60">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:AM7 B8:B9 F10:AM10 B11:AM11 B12 F13:AM13 B14:AM14 B15 F16:AM16 B17:AM17 B18 F19:AM19 B20:AM20 B21 F22:AM22 B23:AM23 B24 F25:AM25 B26:AM26 B27 F28:AM28 B29:AM29 B30 F31:AM31 B32:AM32 B33 F34:AM34 B35:AM35 B36 F37:AM37 B38:AM38 B39:B40 B43 B46 B49 B52 B55 B58 B61">
-    <cfRule type="cellIs" dxfId="3" priority="69" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="70" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7 B10:C10 B13:C13 B16:C16 B19:C19 B22:C22 B25:C25 B28:C28 B31:C31 B34:C34 B37:C37 B41:C42 B44:C45 B47:C48 B50:C51 B53:C54 B56:C57 B59:C60">
+    <cfRule type="cellIs" dxfId="2" priority="74" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="75" stopIfTrue="1" operator="between">
+      <formula>-99.999999999999</formula>
+      <formula>99.999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39872,26 +39855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6e6b88c-8d12-40de-97ca-53d6a0947b55">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bacd1cd2-1dd3-4f11-98e6-3c5dee1c3255" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042F0EEFC51374E449569A1D7EE9E03E1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfaf46616796bcbc2458608b90cfe915">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6e6b88c-8d12-40de-97ca-53d6a0947b55" xmlns:ns3="bacd1cd2-1dd3-4f11-98e6-3c5dee1c3255" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="253cd55abe1044b5a9f978dbef89d181" ns2:_="" ns3:_="">
     <xsd:import namespace="b6e6b88c-8d12-40de-97ca-53d6a0947b55"/>
@@ -40146,12 +40109,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6e6b88c-8d12-40de-97ca-53d6a0947b55">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bacd1cd2-1dd3-4f11-98e6-3c5dee1c3255" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E7B82C-4E13-4277-B40A-68217AD50118}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADEA7182-E1A2-4D4F-AE14-D67C7B1049C1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40162,33 +40141,14 @@
     <ds:schemaRef ds:uri="abf44ee1-6942-42bb-9e03-dcc20019c9bf"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
     <ds:schemaRef ds:uri="81c01dc6-2c49-4730-b140-874c95cac377"/>
-    <ds:schemaRef ds:uri="b6e6b88c-8d12-40de-97ca-53d6a0947b55"/>
-    <ds:schemaRef ds:uri="bacd1cd2-1dd3-4f11-98e6-3c5dee1c3255"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADEA7182-E1A2-4D4F-AE14-D67C7B1049C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E7B82C-4E13-4277-B40A-68217AD50118}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b6e6b88c-8d12-40de-97ca-53d6a0947b55"/>
-    <ds:schemaRef ds:uri="bacd1cd2-1dd3-4f11-98e6-3c5dee1c3255"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{adaa4be3-f650-4692-881a-64ae220cbceb}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
-</clbl:labelList>
 </file>